--- a/data/trans_bre/IP19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 2,91</t>
+          <t>-16,29; 2,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 18,45</t>
+          <t>-0,06; 18,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 18,32</t>
+          <t>-2,63; 19,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 3,66</t>
+          <t>-13,18; 4,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,64; 71,68</t>
+          <t>-88,94; 106,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 1134,3</t>
+          <t>-23,09; 1425,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,31</t>
+          <t>-4,24; 2,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,57</t>
+          <t>-4,15; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,41</t>
+          <t>-1,75; 4,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,67</t>
+          <t>-1,33; 4,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 69,73</t>
+          <t>-50,04; 60,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 79,5</t>
+          <t>-49,16; 76,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 155,54</t>
+          <t>-28,79; 152,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 212,72</t>
+          <t>-32,63; 216,02</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 5,28</t>
+          <t>-6,73; 5,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 2,42</t>
+          <t>-6,56; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,28</t>
+          <t>-3,38; 6,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,11</t>
+          <t>-1,97; 6,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 226,39</t>
+          <t>-75,93; 214,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 638,37</t>
+          <t>-56,6; 697,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,89</t>
+          <t>-4,34; 1,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,69</t>
+          <t>-2,16; 3,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,94</t>
+          <t>-0,95; 3,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,74</t>
+          <t>-0,62; 3,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 34,26</t>
+          <t>-49,48; 34,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 88,49</t>
+          <t>-31,9; 95,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 148,52</t>
+          <t>-21,36; 149,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 163,44</t>
+          <t>-19,15; 168,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-52,5%</t>
+          <t>-49,93%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 2,35</t>
+          <t>-17,19; 2,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 18,32</t>
+          <t>-0,36; 18,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 19,71</t>
+          <t>-2,67; 18,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 4,35</t>
+          <t>-14,43; 4,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-88,94; 106,5</t>
+          <t>-89,99; 74,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 1425,7</t>
+          <t>-41,04; 1111,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>51,2%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,92</t>
+          <t>-4,03; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,67</t>
+          <t>-4,05; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,29</t>
+          <t>-2,41; 4,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,7</t>
+          <t>-0,93; 5,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 60,64</t>
+          <t>-47,76; 68,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 76,96</t>
+          <t>-47,82; 63,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 152,09</t>
+          <t>-42,45; 127,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 216,02</t>
+          <t>-27,66; 267,63</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>67,72%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 5,4</t>
+          <t>-7,31; 5,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,82</t>
+          <t>-5,8; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 6,19</t>
+          <t>-3,61; 5,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,41</t>
+          <t>-2,15; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,93; 214,44</t>
+          <t>-78,61; 237,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 338,64</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 697,58</t>
+          <t>-61,52; 845,66</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>45,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,81</t>
+          <t>-4,16; 1,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,75</t>
+          <t>-2,37; 3,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,98</t>
+          <t>-1,23; 4,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,84</t>
+          <t>-0,62; 4,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 34,22</t>
+          <t>-47,95; 32,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 95,49</t>
+          <t>-33,33; 83,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 149,47</t>
+          <t>-25,25; 159,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 168,51</t>
+          <t>-18,39; 191,18</t>
         </is>
       </c>
     </row>
